--- a/diary/2017-7-12(L).xlsx
+++ b/diary/2017-7-12(L).xlsx
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>休息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全家雞翅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t>小番茄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +515,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="A11:F11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -547,7 +547,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>30</v>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>19.3</v>
@@ -682,7 +682,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
